--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojer\PycharmProjects\StockScreener-VCMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6687A407-40B1-4A16-953C-B1EF015D63DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A9956-D5BC-4448-9136-4A6F1DFCCAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3555" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Tickers.xlsx
+++ b/Tickers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojer\PycharmProjects\StockScreener-VCMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojer.chien\PycharmProjects\StockScreener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A9956-D5BC-4448-9136-4A6F1DFCCAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="2385" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="US" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9173" uniqueCount="9169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9172" uniqueCount="9168">
   <si>
     <t>AAAU</t>
   </si>
@@ -27115,9 +27114,6 @@
   </si>
   <si>
     <t>8478.TW</t>
-  </si>
-  <si>
-    <t>8480.TW</t>
   </si>
   <si>
     <t>8481.TW</t>
@@ -27534,7 +27530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -27666,23 +27662,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -27718,23 +27697,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -27910,10 +27872,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5719" workbookViewId="0">
+    <sheetView topLeftCell="A5719" workbookViewId="0">
       <selection activeCell="A5729" sqref="A5729:XFD5729"/>
     </sheetView>
   </sheetViews>
@@ -59506,10 +59468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A1659"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1658"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
+      <selection activeCell="D1518" sqref="D1518"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -67801,11 +67765,6 @@
     <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
         <v>9167</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1659" t="s">
-        <v>9168</v>
       </c>
     </row>
   </sheetData>
@@ -67816,7 +67775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
